--- a/va_facility_data_2025-02-20/Milledgeville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Milledgeville%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Milledgeville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Milledgeville%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R3f85ebc520f649f6a511adfffae75a7f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7491bc593f02462f9d5339fbcb786528"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9d6be13ed6f14977911192f617e3884e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Red7f3d32837a4f8b9611d975c21c5a3b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3e87557c86264de5bf7bded2c29bae46"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R853a933299db405691749ddcfbd38853"/>
   </x:sheets>
 </x:workbook>
 </file>
